--- a/Entrenamiento.xlsx
+++ b/Entrenamiento.xlsx
@@ -278,7 +278,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -394,6 +394,12 @@
       <sz val="10"/>
       <color rgb="FF2E2E2E"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -428,7 +434,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -445,65 +451,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -516,13 +501,76 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -742,120 +790,122 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="69" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="4" max="8" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="69" style="13" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="13"/>
+    <col min="4" max="8" width="14.42578125" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12.75">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" ht="43.5" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:3" ht="63.75">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2"/>
+      <c r="B3" s="11">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16"/>
     </row>
     <row r="4" spans="1:3" ht="37.5" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2"/>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16"/>
     </row>
     <row r="5" spans="1:3" ht="89.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2"/>
+      <c r="B5" s="11">
+        <v>0</v>
+      </c>
+      <c r="C5" s="16"/>
     </row>
     <row r="6" spans="1:3" ht="89.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2"/>
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16"/>
     </row>
     <row r="7" spans="1:3" ht="114.75">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2"/>
+      <c r="B7" s="11">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16"/>
     </row>
     <row r="8" spans="1:3" ht="38.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2"/>
+      <c r="B8" s="11">
+        <v>1</v>
+      </c>
+      <c r="C8" s="16"/>
     </row>
     <row r="9" spans="1:3" ht="38.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2"/>
+      <c r="B9" s="11">
+        <v>1</v>
+      </c>
+      <c r="C9" s="16"/>
     </row>
     <row r="10" spans="1:3" ht="51">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2"/>
+      <c r="B10" s="11">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:3" ht="51">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3"/>
+      <c r="B11" s="11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="19"/>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="11">
@@ -863,7 +913,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="11">
@@ -871,7 +921,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="22" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="11">
@@ -879,7 +929,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="11">
@@ -887,7 +937,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="11">
@@ -895,7 +945,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="21" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="11">
@@ -903,7 +953,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="11">
@@ -911,7 +961,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="24" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="11">
@@ -919,7 +969,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="24" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="11">
@@ -927,7 +977,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="25" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="11">
@@ -935,7 +985,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="26" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="11">
@@ -943,95 +993,95 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B32" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="21">
+      <c r="B33" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="29" t="s">
         <v>48</v>
       </c>
       <c r="B34" s="11">
@@ -1039,7 +1089,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="30" t="s">
         <v>49</v>
       </c>
       <c r="B35" s="11">
@@ -1047,7 +1097,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="30" t="s">
         <v>51</v>
       </c>
       <c r="B36" s="11">
@@ -1055,7 +1105,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="31" t="s">
         <v>53</v>
       </c>
       <c r="B37" s="11">
@@ -1063,7 +1113,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="32" t="s">
         <v>55</v>
       </c>
       <c r="B38" s="11">
@@ -1071,7 +1121,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="33" t="s">
         <v>57</v>
       </c>
       <c r="B39" s="11">
@@ -1079,7 +1129,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="34" t="s">
         <v>59</v>
       </c>
       <c r="B40" s="11">
@@ -1087,7 +1137,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="34" t="s">
         <v>61</v>
       </c>
       <c r="B41" s="11">
@@ -1095,222 +1145,120 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="35" t="s">
         <v>63</v>
       </c>
       <c r="B42" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A43" s="29" t="s">
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A43" s="36" t="s">
         <v>65</v>
       </c>
       <c r="B43" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A44" s="32" t="s">
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A44" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="31">
-        <v>1</v>
-      </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A45" s="32"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A46" s="32"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A47" s="32" t="s">
+      <c r="B44" s="39">
+        <v>1</v>
+      </c>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A45" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A48" s="32"/>
-      <c r="B48" s="30"/>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A49" s="32"/>
-      <c r="B49" s="30"/>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A50" s="32" t="s">
+      <c r="B45" s="40">
+        <v>0</v>
+      </c>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A46" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A51" s="32"/>
-      <c r="B51" s="30"/>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A52" s="32"/>
-      <c r="B52" s="30"/>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A53" s="33" t="s">
+      <c r="B46" s="40">
+        <v>1</v>
+      </c>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A47" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A54" s="33"/>
-      <c r="B54" s="30"/>
-    </row>
-    <row r="55" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A55" s="33"/>
-      <c r="B55" s="30"/>
-    </row>
-    <row r="56" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A56" s="33" t="s">
+      <c r="B47" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A48" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A57" s="33"/>
-      <c r="B57" s="30"/>
-    </row>
-    <row r="58" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A58" s="33"/>
-      <c r="B58" s="30"/>
-    </row>
-    <row r="59" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A59" s="33" t="s">
+      <c r="B48" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A49" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B59" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A60" s="33"/>
-      <c r="B60" s="30"/>
-    </row>
-    <row r="61" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A61" s="33"/>
-      <c r="B61" s="30"/>
-    </row>
-    <row r="62" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A62" s="33" t="s">
+      <c r="B49" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A50" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B62" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A63" s="33"/>
-      <c r="B63" s="30"/>
-    </row>
-    <row r="64" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A64" s="33"/>
-      <c r="B64" s="30"/>
-    </row>
-    <row r="65" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A65" s="33" t="s">
+      <c r="B50" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A51" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B65" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A66" s="33"/>
-      <c r="B66" s="30"/>
-    </row>
-    <row r="67" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A67" s="33"/>
-      <c r="B67" s="30"/>
-    </row>
-    <row r="68" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A68" s="33" t="s">
+      <c r="B51" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A52" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B68" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A69" s="33"/>
-      <c r="B69" s="30"/>
-    </row>
-    <row r="70" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A70" s="33"/>
-      <c r="B70" s="30"/>
-    </row>
-    <row r="71" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A71" s="33" t="s">
+      <c r="B52" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A53" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B71" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A72" s="33"/>
-      <c r="B72" s="30"/>
-    </row>
-    <row r="73" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A73" s="33"/>
-      <c r="B73" s="30"/>
+      <c r="B53" s="40">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="A71:A73"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A13" r:id="rId2"/>
@@ -1328,6 +1276,7 @@
     <hyperlink ref="A43" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -1359,7 +1308,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="1">
@@ -1370,7 +1319,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B3" s="1">
@@ -1381,7 +1330,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B4" s="1">
@@ -1392,7 +1341,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B5" s="1">
@@ -1403,7 +1352,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B6" s="1">
@@ -1414,7 +1363,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B7" s="1">
@@ -1425,7 +1374,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="1">
@@ -1436,7 +1385,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B9" s="1">
@@ -1447,7 +1396,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B10" s="1">
@@ -1458,7 +1407,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="10" t="s">
         <v>65</v>
       </c>
       <c r="B11" s="1">
